--- a/FOREX/data/FOREX_5A_historical.xlsx
+++ b/FOREX/data/FOREX_5A_historical.xlsx
@@ -7402,7 +7402,9 @@
       <c r="CD33" t="n">
         <v>89.78503000000001</v>
       </c>
-      <c r="CE33" t="inlineStr"/>
+      <c r="CE33" t="n">
+        <v>97.554</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -21404,7 +21406,9 @@
       <c r="CD99" t="n">
         <v>1450</v>
       </c>
-      <c r="CE99" t="inlineStr"/>
+      <c r="CE99" t="n">
+        <v>1450</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -24716,7 +24720,9 @@
       <c r="CD115" t="n">
         <v>9274</v>
       </c>
-      <c r="CE115" t="inlineStr"/>
+      <c r="CE115" t="n">
+        <v>11041</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -41950,7 +41956,9 @@
       <c r="CD197" t="n">
         <v>2298.46485148515</v>
       </c>
-      <c r="CE197" t="inlineStr"/>
+      <c r="CE197" t="n">
+        <v>2297.609109</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -42901,7 +42909,7 @@
         <v>2.27324391907252</v>
       </c>
       <c r="CE201" t="n">
-        <v>2.28519195612431</v>
+        <v>2.27427791676143</v>
       </c>
     </row>
     <row r="202">
@@ -43599,7 +43607,9 @@
       <c r="CD204" t="n">
         <v>7.3471</v>
       </c>
-      <c r="CE204" t="inlineStr"/>
+      <c r="CE204" t="n">
+        <v>12.9892</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">

--- a/FOREX/data/FOREX_5A_historical.xlsx
+++ b/FOREX/data/FOREX_5A_historical.xlsx
@@ -17211,7 +17211,9 @@
       <c r="CD80" t="n">
         <v>5.7602</v>
       </c>
-      <c r="CE80" t="inlineStr"/>
+      <c r="CE80" t="n">
+        <v>6.0061</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -37488,7 +37490,9 @@
       <c r="CD175" t="n">
         <v>10133.355</v>
       </c>
-      <c r="CE175" t="inlineStr"/>
+      <c r="CE175" t="n">
+        <v>11224.605</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">

--- a/FOREX/data/FOREX_5A_historical.xlsx
+++ b/FOREX/data/FOREX_5A_historical.xlsx
@@ -33871,19 +33871,19 @@
         <v>4610</v>
       </c>
       <c r="BT158" t="n">
-        <v>4573.75</v>
+        <v>4565.325</v>
       </c>
       <c r="BU158" t="n">
-        <v>4439.905</v>
+        <v>4491.995</v>
       </c>
       <c r="BV158" t="n">
-        <v>4288.8</v>
+        <v>4238.025</v>
       </c>
       <c r="BW158" t="n">
-        <v>4524</v>
+        <v>4598.175</v>
       </c>
       <c r="BX158" t="n">
-        <v>4626.255</v>
+        <v>4635.7</v>
       </c>
       <c r="BY158" t="n">
         <v>5806.915</v>
@@ -37453,55 +37453,55 @@
         <v>2860.49</v>
       </c>
       <c r="BO175" t="n">
-        <v>2932.52</v>
+        <v>2.93252</v>
       </c>
       <c r="BP175" t="n">
-        <v>2973.94</v>
+        <v>2.97394</v>
       </c>
       <c r="BQ175" t="n">
-        <v>2977.6</v>
+        <v>2.9776</v>
       </c>
       <c r="BR175" t="n">
-        <v>3042.24</v>
+        <v>3.04224</v>
       </c>
       <c r="BS175" t="n">
-        <v>3855.68</v>
+        <v>3.85568</v>
       </c>
       <c r="BT175" t="n">
-        <v>4198.01</v>
+        <v>4.19801</v>
       </c>
       <c r="BU175" t="n">
-        <v>4377.71</v>
+        <v>4.37771</v>
       </c>
       <c r="BV175" t="n">
-        <v>4334.11</v>
+        <v>4.33411</v>
       </c>
       <c r="BW175" t="n">
-        <v>4356.37</v>
+        <v>4.35637</v>
       </c>
       <c r="BX175" t="n">
-        <v>4953.34</v>
+        <v>4.95334</v>
       </c>
       <c r="BY175" t="n">
-        <v>5639.1</v>
+        <v>5.6391</v>
       </c>
       <c r="BZ175" t="n">
-        <v>7195.365</v>
+        <v>7.195365</v>
       </c>
       <c r="CA175" t="n">
-        <v>7536.96</v>
+        <v>7.53696</v>
       </c>
       <c r="CB175" t="n">
-        <v>8396.049999999999</v>
+        <v>8.396050000000001</v>
       </c>
       <c r="CC175" t="n">
-        <v>9716.709999999999</v>
+        <v>9.716710000000001</v>
       </c>
       <c r="CD175" t="n">
-        <v>10133.355</v>
+        <v>10.133355</v>
       </c>
       <c r="CE175" t="n">
-        <v>11224.605</v>
+        <v>11.224605</v>
       </c>
     </row>
     <row r="176">
@@ -39272,7 +39272,9 @@
       <c r="CD185" t="n">
         <v>186.4082</v>
       </c>
-      <c r="CE185" t="inlineStr"/>
+      <c r="CE185" t="n">
+        <v>200.4338</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -41357,7 +41359,9 @@
       <c r="CD194" t="n">
         <v>19.9495</v>
       </c>
-      <c r="CE194" t="inlineStr"/>
+      <c r="CE194" t="n">
+        <v>21.6757</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
